--- a/IBMi_SDK_Documentation/ASIAO Data Structure.xlsx
+++ b/IBMi_SDK_Documentation/ASIAO Data Structure.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\ASIA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="9555" windowHeight="8760"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="129">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -644,6 +649,30 @@
   <si>
     <t>TyDece</t>
   </si>
+  <si>
+    <t>O_ExptCertId</t>
+  </si>
+  <si>
+    <t>Exemption Certificate ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O_TaxDat </t>
+  </si>
+  <si>
+    <t>Base date for the tax calculation</t>
+  </si>
+  <si>
+    <t>O_RepDat</t>
+  </si>
+  <si>
+    <t>Reporting Date</t>
+  </si>
+  <si>
+    <t>O_AcctMethod</t>
+  </si>
+  <si>
+    <t>Accounting method (Cash or Accrual)</t>
+  </si>
 </sst>
 </file>
 
@@ -747,6 +776,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -794,7 +826,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -829,7 +861,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1038,11 +1070,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1813,106 +1845,114 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="5"/>
+      <c r="A37" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="5">
+        <v>10</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" s="5">
+        <v>10</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="B38" s="5">
+        <v>10</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="5">
+        <v>10</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="5">
+        <v>10</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" s="5">
+        <v>10</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="5">
+        <v>10</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" s="5">
+        <v>10</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="5">
-        <v>3</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="5">
-        <v>3</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" s="5">
-        <v>50</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>118</v>
-      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="5"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B42" s="5">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>118</v>
@@ -1922,18 +1962,18 @@
         <v>64</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B43" s="5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>118</v>
@@ -1943,49 +1983,49 @@
         <v>64</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B44" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5" t="s">
         <v>64</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B45" s="5">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5" t="s">
         <v>64</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>33</v>
@@ -1993,10 +2033,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B46" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>118</v>
@@ -2006,7 +2046,7 @@
         <v>64</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>33</v>
@@ -2014,7 +2054,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B47" s="5">
         <v>10</v>
@@ -2027,18 +2067,18 @@
         <v>64</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B48" s="5">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>118</v>
@@ -2048,28 +2088,28 @@
         <v>64</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B49" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="5" t="s">
         <v>64</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>33</v>
@@ -2077,73 +2117,83 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B50" s="5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="5" t="s">
         <v>64</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>111</v>
+        <v>8</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
+      <c r="A51" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="5">
+        <v>10</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="5"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E51" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B52" s="5">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>118</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B53" s="5">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>118</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>33</v>
@@ -2151,49 +2201,39 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B54" s="5">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B55" s="5">
-        <v>50</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>118</v>
-      </c>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
       <c r="D55" s="5"/>
-      <c r="E55" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="E55" s="5"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="5"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B56" s="5">
         <v>50</v>
@@ -2206,15 +2246,15 @@
         <v>72</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B57" s="5">
         <v>50</v>
@@ -2227,35 +2267,95 @@
         <v>72</v>
       </c>
       <c r="F57" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" s="5">
+        <v>50</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" s="5">
+        <v>50</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" s="5">
+        <v>50</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" s="5">
+        <v>50</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F61" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="G57" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B58"/>
-      <c r="D58"/>
-      <c r="F58"/>
-      <c r="G58"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B59"/>
-      <c r="D59"/>
-      <c r="F59"/>
-      <c r="G59"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B60"/>
-      <c r="D60"/>
-      <c r="F60"/>
-      <c r="G60"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B61"/>
-      <c r="D61"/>
-      <c r="F61"/>
-      <c r="G61"/>
+      <c r="G61" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B62"/>
@@ -2269,7 +2369,7 @@
       <c r="F63"/>
       <c r="G63"/>
     </row>
-    <row r="64" spans="1:7" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B64"/>
       <c r="D64"/>
       <c r="F64"/>
@@ -2293,7 +2393,7 @@
       <c r="F67"/>
       <c r="G67"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68"/>
       <c r="D68"/>
       <c r="F68"/>
@@ -2322,6 +2422,30 @@
       <c r="D72"/>
       <c r="F72"/>
       <c r="G72"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73"/>
+      <c r="D73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74"/>
+      <c r="D74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75"/>
+      <c r="D75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76"/>
+      <c r="D76"/>
+      <c r="F76"/>
+      <c r="G76"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
